--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D37392-DB3A-4E7A-A892-788AD4FCC8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6D1988-5C4A-4139-B889-5359A2B73D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>cardName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,19 @@
   </si>
   <si>
     <t>Remote bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：将主牌堆顶2张牌送墓。&lt;br&gt;
+开战时：用墓地顶端1张牌替换本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,89 +643,86 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -721,126 +731,146 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6D1988-5C4A-4139-B889-5359A2B73D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33367AD4-5E20-4A0F-82E4-9E0C4AB8BA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被弃置时：选弃牌堆1张怪物牌送墓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Teleporter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +221,10 @@
   </si>
   <si>
     <t>Tomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被弃置时：选弃牌堆1张怪物牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +611,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -654,10 +654,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -812,7 +812,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -850,7 +850,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -865,10 +865,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="4"/>
     </row>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33367AD4-5E20-4A0F-82E4-9E0C4AB8BA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7D4C7D-ED11-4B32-8FDF-D29C0DB2D074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>cardName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,27 @@
   </si>
   <si>
     <t>被弃置时：选弃牌堆1张怪物牌送墓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：选同一行中1张怪物牌替换房间区的1张怪物牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trade machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时在房间区：选本牌前方1行或后方1行的1张怪物牌，替换房间区或手牌的1张怪物牌。&lt;br&gt;
+回合结束时在手牌区：选手牌的1张怪物牌，替换房间区的1张怪物牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,7 +786,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -841,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -871,6 +892,37 @@
         <v>44</v>
       </c>
       <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7D4C7D-ED11-4B32-8FDF-D29C0DB2D074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB35328-3B4D-41D0-90BE-0DBAEFCBE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,13 +168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交锋时：同一行中所有怪物牌点数变为1。</t>
-  </si>
-  <si>
     <t>交锋时：同一行中怪物牌数量不小于本牌点数时，同一行中所有怪物牌送墓，然后本牌送墓。</t>
-  </si>
-  <si>
-    <t>交锋时：同一行中所有怪物牌点数减1。</t>
   </si>
   <si>
     <t>交锋时：同一行中所有怪物牌的效果无效化。</t>
@@ -246,6 +240,14 @@
   <si>
     <t>回合结束时在房间区：选本牌前方1行或后方1行的1张怪物牌，替换房间区或手牌的1张怪物牌。&lt;br&gt;
 回合结束时在手牌区：选手牌的1张怪物牌，替换房间区的1张怪物牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：同一行中所有怪物牌点数变为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：同一行中所有怪物牌点数点数减1。该效果结算完毕后，如果本行没有怪物牌，则将本牌也送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +634,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,7 +668,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -675,10 +677,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -692,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -712,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -732,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -752,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -812,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -830,10 +832,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -848,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -868,10 +870,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -886,16 +888,16 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -904,12 +906,12 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -918,10 +920,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB35328-3B4D-41D0-90BE-0DBAEFCBE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3470B11D-FD3C-413A-8E04-BDAAE0191A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,16 +238,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合结束时在房间区：选本牌前方1行或后方1行的1张怪物牌，替换房间区或手牌的1张怪物牌。&lt;br&gt;
-回合结束时在手牌区：选手牌的1张怪物牌，替换房间区的1张怪物牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交锋时：同一行中所有怪物牌点数变为1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交锋时：同一行中所有怪物牌点数点数减1。该效果结算完毕后，如果本行没有怪物牌，则将本牌也送墓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时在房间区，可选：选本牌前方的1张怪物牌，替换房间区或手牌的1张怪物牌。&lt;br&gt;
+回合结束时在手牌区，可选：选手牌的1张怪物牌，替换房间区的1张怪物牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3470B11D-FD3C-413A-8E04-BDAAE0191A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F298C8-DE4A-47FA-8377-6281D2E3AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控炸弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石柱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,9 +170,6 @@
     <t>交锋时：同一行中所有怪物牌的效果无效化。</t>
   </si>
   <si>
-    <t>交锋时：将同一行中所有怪物牌返回牌堆底，然后将本牌送墓。</t>
-  </si>
-  <si>
     <t>点数降低时：本牌所在行所有点数不大于本牌的牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +191,6 @@
   </si>
   <si>
     <t>Pillar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote bomb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交锋时：选同一行中1张怪物牌替换房间区的1张怪物牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交换机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +233,22 @@
   <si>
     <t>回合结束时在房间区，可选：选本牌前方的1张怪物牌，替换房间区或手牌的1张怪物牌。&lt;br&gt;
 回合结束时在手牌区，可选：选手牌的1张怪物牌，替换房间区的1张怪物牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟爆弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delayed bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：如果同一行中怪物牌数量大于1，则将同一行中所有怪物牌洗回主牌堆，然后将本牌送墓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：选对位的1张怪物牌移动到本牌所在槽位，然后将本牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,21 +655,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -677,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -694,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -714,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -734,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -754,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -774,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -794,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -814,10 +815,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -832,10 +833,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -850,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -861,7 +862,7 @@
     </row>
     <row r="12" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -870,16 +871,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -888,16 +889,16 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -906,12 +907,12 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -920,10 +921,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F298C8-DE4A-47FA-8377-6281D2E3AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0E5F4C-AD23-463F-959C-528BEFA4CD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>cardName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,32 +153,6 @@
   </si>
   <si>
     <t>effectEn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一行中，有怪物牌发动效果后：那张怪物牌送墓，然后本牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋被压制时：同区域中位于本牌后方的所有点数不大于本牌的牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：同一行中怪物牌数量不小于本牌点数时，同一行中所有怪物牌送墓，然后本牌送墓。</t>
-  </si>
-  <si>
-    <t>交锋时：同一行中所有怪物牌的效果无效化。</t>
-  </si>
-  <si>
-    <t>点数降低时：本牌所在行所有点数不大于本牌的牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有牌移入本牌所在行时：本行所有牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋被压制时：选探索区任意非空列，该列所有牌点数减1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -207,35 +181,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被弃置时：选弃牌堆1张怪物牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暗门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交换机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trade machine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：同一行中所有怪物牌点数变为1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：同一行中所有怪物牌点数点数减1。该效果结算完毕后，如果本行没有怪物牌，则将本牌也送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时在房间区，可选：选本牌前方的1张怪物牌，替换房间区或手牌的1张怪物牌。&lt;br&gt;
-回合结束时在手牌区，可选：选手牌的1张怪物牌，替换房间区的1张怪物牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>延迟爆弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,11 +193,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交锋时：如果同一行中怪物牌数量大于1，则将同一行中所有怪物牌洗回主牌堆，然后将本牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：选对位的1张怪物牌移动到本牌所在槽位，然后将本牌送墓。</t>
+    <t>回合结束时：横置本牌，然后同槽位中所有其他牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有怪物牌移入本牌所在行或列时：消灭那张怪物牌，然后本牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时：如果本牌点数大于1，则将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有牌点数减1。&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数降低时：本牌所在槽位和相邻槽位的所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有牌移入本牌所在槽位时：该槽位中所有牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时：选本牌所在行或列，其中的所有牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：横置本牌所在槽位中所有牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位的1张其他牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有怪物牌移入本牌所在槽位中时：将其移动到对位槽位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,7 +658,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -678,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -695,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -715,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -729,13 +718,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -749,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -775,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -795,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -815,10 +804,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -827,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -851,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -865,40 +854,40 @@
         <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -907,24 +896,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0E5F4C-AD23-463F-959C-528BEFA4CD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1B0EB5-AB4E-40B9-B498-FA966291DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>死亡时：如果本牌点数大于1，则将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有牌点数减1。&lt;br&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +234,10 @@
   </si>
   <si>
     <t>有怪物牌移入本牌所在槽位中时：将其移动到对位槽位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时：如果本牌点数大于1，则将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有其他牌点数减1。&lt;br&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>32</v>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>38</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1B0EB5-AB4E-40B9-B498-FA966291DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336B20D-40D2-4FEF-8F50-9A8D54EFEEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,72 +172,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Tomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟爆弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delayed bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有怪物牌移入本牌所在行或列时：消灭那张怪物牌，然后本牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数降低时：本牌所在槽位和相邻槽位的所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时：选本牌所在行或列，其中的所有牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时：如果本牌点数大于1，则将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有其他牌点数减1。&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>回合结束时：将主牌堆顶2张牌送墓。&lt;br&gt;
-开战时：用墓地顶端1张牌替换本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟爆弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delayed bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：横置本牌，然后同槽位中所有其他牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有怪物牌移入本牌所在行或列时：消灭那张怪物牌，然后本牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点数降低时：本牌所在槽位和相邻槽位的所有牌点数减1，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有牌移入本牌所在槽位时：该槽位中所有牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时：选本牌所在行或列，其中的所有牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：横置本牌所在槽位中所有牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位的1张其他牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有怪物牌移入本牌所在槽位中时：将其移动到对位槽位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时：如果本牌点数大于1，则将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有其他牌点数减1。&lt;br&gt;</t>
+开战时：用墓地第1张牌替换本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：横置本牌，然后本牌所在槽位和对位槽位中所有其他牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：横置本牌所在槽位和对位槽位中所有牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有牌移入本牌所在槽位时：本牌所在槽位和对位槽位中所有牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位或对位槽位中的1张其他牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：同槽位中有怪物牌时，将本牌和同槽位中1张怪物牌移动到对位槽位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>32</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="13" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -878,16 +878,16 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336B20D-40D2-4FEF-8F50-9A8D54EFEEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575581A-5977-4FA4-A3EC-C220029F1510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,23 +192,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点数降低时：本牌所在槽位和相邻槽位的所有牌点数减1，然后消灭本牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>死亡时：选本牌所在行或列，其中的所有牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交锋时：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,6 +226,18 @@
   </si>
   <si>
     <t>回合结束时：同槽位中有怪物牌时，将本牌和同槽位中1张怪物牌移动到对位槽位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>32</v>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>37</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1575581A-5977-4FA4-A3EC-C220029F1510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFB423-FEE9-4CFC-9AD0-E0CEFF87C3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有怪物牌移入本牌所在行或列时：消灭那张怪物牌，然后本牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点数降低时：本牌所在槽位和相邻槽位的所有牌点数减1，然后消灭本牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,40 +200,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合结束时：将主牌堆顶2张牌送墓。&lt;br&gt;
+    <t>回合结束时：横置本牌，然后本牌所在槽位和对位槽位中所有其他牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：横置本牌所在槽位和对位槽位中所有牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有牌移入本牌所在槽位时：本牌所在槽位和对位槽位中所有牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位或对位槽位中的1张其他牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：将本牌移动到对位槽位，同槽位中有怪物牌时，选其中1张一起移动到对位槽位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：将主牌堆顶1张牌送墓。&lt;br&gt;
 开战时：用墓地第1张牌替换本牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合结束时：横置本牌，然后本牌所在槽位和对位槽位中所有其他牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：横置本牌所在槽位和对位槽位中所有牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有牌移入本牌所在槽位时：本牌所在槽位和对位槽位中所有牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位或对位槽位中的1张其他牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：同槽位中有怪物牌时，将本牌和同槽位中1张怪物牌移动到对位槽位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战时：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战时：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
+    <t>本牌所在行列的槽位新增怪物牌时：那张怪物牌点数减2，然后本牌点数减1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>32</v>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>37</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFB423-FEE9-4CFC-9AD0-E0CEFF87C3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D820C86-10BB-4B2D-872D-F7388925C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有牌移入本牌所在槽位时：本牌所在槽位和对位槽位中所有牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合结束时：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位或对位槽位中的1张其他牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +234,10 @@
   </si>
   <si>
     <t>本牌所在行列的槽位新增怪物牌时：那张怪物牌点数减2，然后本牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有牌进入本牌所在槽位时：本牌所在槽位和对位槽位中所有牌点数减1，然后消灭本牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>37</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D820C86-10BB-4B2D-872D-F7388925C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76525CC-EA46-4885-8E91-F3B0A0030617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="3255" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,56 +188,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点数降低时：本牌所在槽位和相邻槽位的所有牌点数减1，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时：选本牌所在行或列，其中的所有牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时：如果本牌点数大于1，则将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有其他牌点数减1。&lt;br&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：横置本牌，然后本牌所在槽位和对位槽位中所有其他牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：横置本牌所在槽位和对位槽位中所有牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位或对位槽位中的1张其他牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战时：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战时：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时：将本牌移动到对位槽位，同槽位中有怪物牌时，选其中1张一起移动到对位槽位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合结束时：将主牌堆顶1张牌送墓。&lt;br&gt;
-开战时：用墓地第1张牌替换本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本牌所在行列的槽位新增怪物牌时：那张怪物牌点数减2，然后本牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有牌进入本牌所在槽位时：本牌所在槽位和对位槽位中所有牌点数减1，然后消灭本牌。</t>
+开战时，触发：用墓地第1张牌替换本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时，触发：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：横置本牌，然后本牌所在槽位和对位槽位中所有其他牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：横置本牌所在槽位和对位槽位中所有牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本牌所在行列的槽位新增怪物牌时，触发：那张怪物牌点数减2，然后本牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时，触发：如果本牌点数大于1，则将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有其他牌点数减1。&lt;br&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时，触发：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数降低时，触发：本牌所在槽位和相邻槽位的所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有牌进入本牌所在槽位时，触发：本牌所在槽位和对位槽位中所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时，触发：选本牌所在行或列，其中的所有牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位或对位槽位中的1张其他牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：将本牌移动到对位槽位，同槽位中有怪物牌时，选其中1张一起移动到对位槽位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>32</v>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>37</v>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/TrapCardData.xlsx
+++ b/sheet/TrapCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76525CC-EA46-4885-8E91-F3B0A0030617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0848C6-4AF3-4065-B349-F964CC37AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="3255" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,51 +193,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开战时，触发：本牌所在槽位和对位槽位的所有怪物牌点数变为1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，触发：如果本牌所在槽位和对位槽位的怪物牌合计数量不小于本牌点数，则将那些怪物牌全部消灭，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，触发：横置本牌，然后本牌所在槽位和对位槽位中所有其他牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，触发：横置本牌所在槽位和对位槽位中所有牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本牌所在行列的槽位新增怪物牌时，触发：那张怪物牌点数减2，然后本牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时，触发：如果本牌点数大于1，则将本牌移动到相邻槽位中而不是送墓，然后使本牌和那个槽位中所有其他牌点数减1。&lt;br&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开战时，触发：如果本牌所在槽位和对位槽位的怪物牌合计数量大于1，则将那些怪物牌洗回主牌堆，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点数降低时，触发：本牌所在槽位和相邻槽位的所有牌点数减1，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有牌进入本牌所在槽位时，触发：本牌所在槽位和对位槽位中所有牌点数减1，然后消灭本牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时，触发：选本牌所在行或列，其中的所有牌点数减1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，触发：移动到1个相邻槽位，然后点数减1，本牌点数因此降至0时，消灭本牌所在槽位或对位槽位中的1张其他牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合结束时，触发：将本牌移动到对位槽位，同槽位中有怪物牌时，选其中1张一起移动到对位槽位。</t>
+    <t>开战时，触发：同房间所有怪物牌点数变为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：如果同房间怪物牌合计数量不小于本牌点数，消灭那些怪物牌，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：横置本牌，然后同房间内所有其他牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：横置同房间内所有牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同房间内怪物牌移入或移出时，触发：那张怪物牌点数减2，然后本牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时，触发：如果本牌点数大于1，则将本牌移动到相邻房间中而不是送墓，然后使本牌和目标房间中所有其他牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开战时，触发：如果同房间怪物牌合计数量大于1，则将那些怪物牌移入其他房间的同侧，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数降低时，触发：同房间所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同房间内牌移入或移出时，触发：同房间内所有牌点数减1，然后消灭本牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时，触发：选1个相邻房间，使其中的所有牌点数减1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时：移动1格，然后点数减1。&lt;br&gt;
+点数为0时，触发：消灭同房间1张其他牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束时，触发：选同侧至多1张怪物牌，与本牌一起移动到对侧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
